--- a/Parser_YD_GOO.xlsx
+++ b/Parser_YD_GOO.xlsx
@@ -24,7 +24,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="153">
+  <si>
+    <t>Минитрактор.РФ - Запчасти на китайские минитрактора...</t>
+  </si>
+  <si>
+    <t>минитрактор.рф</t>
+  </si>
+  <si>
+    <t>З/части для минитракторов и навесного оборудования. От 10 т.р. скидка до 10%!!! · Оплата при получении. Есть доставка. Скидки оптовикам. Гарантия</t>
+  </si>
+  <si>
+    <t>8 (800) 77-00-985</t>
+  </si>
   <si>
     <t>Запчасти для трактора – Новые и б/у запчасти</t>
   </si>
@@ -35,307 +47,442 @@
     <t>Запчасти для трактора от поставщиков. Большой выбор. Низкие цены.</t>
   </si>
   <si>
+    <t>Запчасти для тракторов! Гарантии! – Оптом и в розницу!</t>
+  </si>
+  <si>
+    <t>sparox.ru</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов! Широкий ассортимент товара! Выгодная цена! Заказывайте! · Гарантии. Широкий ассортимент. Качество. Оплата онлайн</t>
+  </si>
+  <si>
+    <t>+7 (800) 707-33-96</t>
+  </si>
+  <si>
+    <t>1запчасти трактор - Авито — объявления в Краснодарском...</t>
+  </si>
+  <si>
+    <t>Avito.ru</t>
+  </si>
+  <si>
+    <t>Выгодно покупайте и продавайте авто, недвижимость и вещи в Краснодарском крае. Находите надёжных исполнителей и работу. Самый популярный сервис объявлений...</t>
+  </si>
+  <si>
+    <t>2Тракторные запчасти в Краснодаре на карте:  телефоны...</t>
+  </si>
+  <si>
+    <t>2gis.ru</t>
+  </si>
+  <si>
+    <t>Тракторные запчасти: адреса на карте, телефоны, сайты, часы работы, отзывы, фото, поиск проезда на городском транспорте и авто.</t>
+  </si>
+  <si>
+    <t>3Запчасти для тракторов купить в Краснодаре, цена...</t>
+  </si>
+  <si>
+    <t>tdmtz-kr.ru</t>
+  </si>
+  <si>
+    <t>Мы предлагаем купить запасные части для тракторов МТЗ, различные узлы и агрегаты: Запчасти для переднего и заднего ведущих мостов, ходовой части, Ремонтные комплекты, Детали для коробок передач, тормозных... Читать ещёМы предлагаем купить запасные части для тракторов МТЗ, различные узлы и агрегаты: Запчасти для переднего и заднего ведущих мостов, ходовой части, Ремонтные комплекты, Детали для коробок передач, тормозных систем, Пусковые двигатели, Колёса и ступицы, Расходные материалы для системы охлаждения, смазки и питания и др. Если в каталоге вы не обнаружили необходимых деталей, оставьте заявку, мы закажем их специально для вас. Скрыть</t>
+  </si>
+  <si>
+    <t>4Тракторные запчасти в Краснодаре. Сравнить цены...</t>
+  </si>
+  <si>
+    <t>krasnodar.tiu.ru</t>
+  </si>
+  <si>
+    <t>Тракторные запчасти. Продажа, поиск, поставщики и магазины, цены в Краснодаре. ... Запчасти трактора МТЗ. Доставка из г. Екатеринбург.</t>
+  </si>
+  <si>
+    <t>5Запчасти на трактор на карте — отзывы, фото, телефоны, адреса</t>
+  </si>
+  <si>
+    <t>Яндекс.Карты</t>
+  </si>
+  <si>
+    <t>Запчасти на трактор на карте — отзывы, фото, телефоны, адреса с рейтингом, отзывами и фотографиями. Адреса, телефоны, часы работы, схема проезда.</t>
+  </si>
+  <si>
+    <t>6Каталог компаний: запчасти для тракторов в Краснодаре</t>
+  </si>
+  <si>
+    <t>agroserver.ru</t>
+  </si>
+  <si>
+    <t>Купить запчасти для сельскохозяйственных тракторов, МТЗ John Deere ЯМЗ и других марок от различных производителей - объявления о продаже, цены и спрос в... Читать ещёКупить запчасти для сельскохозяйственных тракторов, МТЗ John Deere ЯМЗ и других марок от различных производителей - объявления о продаже, цены и спрос в Краснодаре. ... Кубаньтехнопарк - это команда профессионалов, имеющая на вооружении обширные знания и богатый опыт в развитии материально-технической базы сельскохозяйственных предприятий. Мы поможем сделать вам оптимальный выбор техники, которая полностью будет... Запчасти для тракторов (4). Скрыть</t>
+  </si>
+  <si>
+    <t>7Запчасти — низкие цены в Тракторе</t>
+  </si>
+  <si>
+    <t>auto.ru</t>
+  </si>
+  <si>
+    <t>Большой выбор новых и б/у запчастей в Тракторе с ценами и фото. Поиск по марке машины и номерам запчастей.</t>
+  </si>
+  <si>
+    <t>8Запчасти для тракторов купить в Краснодаре по...</t>
+  </si>
+  <si>
+    <t>krasnodar.pulscen.ru</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов в Краснодаре, купить товары у надежных компаний и поставщиков по выгодной цене. Отправьте заказ или напишите сообщение. Читать ещёЗапчасти для тракторов в Краснодаре, купить товары у надежных компаний и поставщиков по выгодной цене. Отправьте заказ или напишите сообщение. Товары и услуги Компании. Закупки. Запчасти для тракторов. 64 поставщика. Гидравлика. По рейтингу По цене (сначала дешевле) По цене (сначала дороже). Цена ... Большой ассортимент запасных частей для гусеничного трактора Т-70 в наличии на складе в Краснодаре! Отправить заказ. Компания Южная Столица. Скрыть</t>
+  </si>
+  <si>
+    <t>9Запчасти к сельхозтехнике в Краснодаре</t>
+  </si>
+  <si>
+    <t>krasnodar.4geo.ru</t>
+  </si>
+  <si>
+    <t>Наш портал поможет найти запчасти к сельхозтехнике поблизости на карте или выбрать лучшее ... Ремонт спецтехники, Запчасти к сельхозтехнике, Сельхозтехника. Читать ещёНаш портал поможет найти запчасти к сельхозтехнике поблизости на карте или выбрать лучшее предложение на основе отзывов. Интернет-магазин, каталог, фотографии в ГИС 4GEO. ... Ремонт спецтехники, Запчасти к сельхозтехнике, Сельхозтехника. Скрыть</t>
+  </si>
+  <si>
+    <t>Яндекс.Маркет</t>
+  </si>
+  <si>
+    <t>15 магазинов. Выбор по параметрам. Доставка из магазинов Краснодара и других регионов.</t>
+  </si>
+  <si>
+    <t>Сельхозтехника и запчасти для тракторов в Краснодаре...</t>
+  </si>
+  <si>
+    <t>yfo.spr.ru</t>
+  </si>
+  <si>
+    <t>Сельхозтехника и запчасти для тракторов: список организаций. Краснодар, подробные отзывы о торговле сельхозтехникой в Краснодаре.</t>
+  </si>
+  <si>
+    <t>Запасные части к тракторам МТЗ-82 в Краснодаре</t>
+  </si>
+  <si>
+    <t>krasnodar.satom.ru</t>
+  </si>
+  <si>
+    <t>Запасные части к тракторам 146. Запчасти и комплектующие к сельхозтехнике ... Запасные части и комплектующие для спецтехники 17. Фронтальные погрузчики 8. Читать ещёЗапасные части к тракторам 146. Запчасти и комплектующие к сельхозтехнике 19. Тракторы 9. Запчасти для прицепной и навесной техники 1. Запасные части и комплектующие для спецтехники 17. Фронтальные погрузчики 8. Навесное оборудование для спецтехники 7. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти тракторные купить в Краснодаре</t>
+  </si>
+  <si>
+    <t>krasnodar.regmarkets.ru</t>
+  </si>
+  <si>
+    <t>В категории: Тракторные запчасти - купить по выгодной цене, доставка: Краснодар, скидки! ... Запчасти на трактор Юмз. Доставка: Краснодар. Читать ещёВ категории: Тракторные запчасти - купить по выгодной цене, доставка: Краснодар, скидки! ... Запчасти на трактор Юмз. Доставка: Краснодар. 615 a. В МАГАЗИН. ООО Агровессервис. Быстрый просмотр. Мост передний 1222-2300020 трактора МТЗ 1221 новый РУП. Доставка: Краснодар. Скрыть</t>
+  </si>
+  <si>
+    <t>Купить запчасти для спецтехники – Выгодно</t>
+  </si>
+  <si>
+    <t>stnavigator.ru</t>
+  </si>
+  <si>
+    <t>MANN Filter, Sakura, Sotras, Zekkert, UFI. Самовывоз в г. Краснодар. Доставка по РФ.  · Высокое качество. Низкие цены. Оригиналы и аналоги. Интернет-магазин</t>
+  </si>
+  <si>
+    <t>+7 (903) 450-08-04</t>
+  </si>
+  <si>
+    <t>Купите запчасти для мини-трактора – Широкий выбор!</t>
+  </si>
+  <si>
+    <t>славянский-мост.рф</t>
+  </si>
+  <si>
+    <t>Китай, Япония, Корея. Новые/контрактные. В наличии и под заказ. Доставка из Краснодара. · Надежность. Гибкие условия. Опт/розница. Есть склад в Приморье</t>
+  </si>
+  <si>
+    <t>+7 (918) 978-18-90</t>
+  </si>
+  <si>
+    <t>Контрактные запчасти – Интернет-магазин</t>
+  </si>
+  <si>
+    <t>alfa-kiomi.ru</t>
+  </si>
+  <si>
+    <t>запчасти из Японии. Отправка в Ваш регион. Все запчасти в наличии. · Японское качество. Качественный сервис · Продавец: Альфа-Киоми. ОГРНИП: 310547625800211</t>
+  </si>
+  <si>
+    <t>+7 (383) 349-59-61</t>
+  </si>
+  <si>
+    <t>Запасные части на трактор – Любой опт!</t>
+  </si>
+  <si>
+    <t>czdp.com</t>
+  </si>
+  <si>
+    <t>Запчасти на трактор с завода в Китае. Выгодные цены. Гарантия. · Запчасти Камаз. Запчасти Краз. МАЗ. Белаз. Урал</t>
+  </si>
+  <si>
+    <t>+86 (577) 656-258-68</t>
+  </si>
+  <si>
+    <t>Запчасти на трактор купить в Краснодаре - АгроВектор</t>
+  </si>
+  <si>
+    <t>krasnodar.agrovektor.ru</t>
+  </si>
+  <si>
+    <t>Купить запчасти на трактор в Краснодаре и Краснодарском крае. Низкие цены, скидки, доставка во все регионы, самовывоз.</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов в Краснодаре - сравнить цены...</t>
+  </si>
+  <si>
+    <t>krasnodar.regtorg.ru</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов в Краснодаре предложения о покупке, продаже товаров и услуг от ведущих поставщиков и производителей Краснодара. Читать ещёЗапчасти для тракторов в Краснодаре предложения о покупке, продаже товаров и услуг от ведущих поставщиков и производителей Краснодара. Продать, купить, узнать цены можно быстро и удобно. Сальник Yanmar 1W0506- 09010. ... Инфо. На нашей торговой площадке RegTorg.Ru г.Краснодара вы сможете найти каталог компаний, предлагающие сельскохозяйственную технику, узнаете цены на запчасти для тракторов и на другие товары и продукцию в Краснодаре. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти на трактора МТЗ 80/82</t>
+  </si>
+  <si>
+    <t>agro-lavka.ru</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов. Запчасти МТЗ 80/82. Запчасти на трактора МТЗ 80/82. Фильтры. Сортировка. Читать ещёЗапчасти для тракторов. Запчасти МТЗ 80/82. Запчасти на трактора МТЗ 80/82. Фильтры. Сортировка. Нет Названия товаров по возрастанию Названия товаров по убыванию. Агрегат. Все Двигатель Трансмиссия Управление Кузов Ходовая Допоборудование. Трактор. Все Запчасти МТЗ 80/82 Запчасти Т-40 Запчасти Т-25 Запчасти ЮМЗ Запчасти МТЗ-1221. В наличии. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти трактора цена, где купить в Краснодарском крае</t>
+  </si>
+  <si>
+    <t>krasnodarskiykray.flagma.ru</t>
+  </si>
+  <si>
+    <t>Запчасти трактора, объявления с ценами и фото, где купить запчасти трактора в Краснодарском крае - продам куплю от компаний портала Flagma Краснодарский...</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов. Запчасти для спецтехники.</t>
+  </si>
+  <si>
+    <t>avtoall.ru</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов, спецтехники и погрузчиков. Тракторы и спецтехника незаменимы при различных видах строительных работ, в сельском хозяйстве, а также в других сферах деятельности. Требования в данном случае особые... Читать ещёЗапчасти для тракторов, спецтехники и погрузчиков. Тракторы и спецтехника незаменимы при различных видах строительных работ, в сельском хозяйстве, а также в других сферах деятельности. Требования в данном случае особые – когда сроки поджимают, а техника работает ... читать далее. Тракторы и спецтехника незаменимы при различных видах строительных работ, в сельском хозяйстве, а также в других сферах деятельности. Скрыть</t>
+  </si>
+  <si>
+    <t>Оригинальные запчасти на трактора МТЗ весь...</t>
+  </si>
+  <si>
+    <t>rinok23.ru</t>
+  </si>
+  <si>
+    <t>Реализуем запчасти на трактора Т-150, Т-150к, ХТЗ, ЮМЗ, ЛТЗ-60, Т-40, Т-25, Т-16 и экскаваторы. Приглашаем к сотрудничеству магазины, оптовые и мелко-оптовые... Читать ещёРеализуем запчасти на трактора Т-150, Т-150к, ХТЗ, ЮМЗ, ЛТЗ-60, Т-40, Т-25, Т-16 и экскаваторы. Приглашаем к сотрудничеству магазины, оптовые и мелко-оптовые организации. Компания специализируется на марках спецтехники. ... Запчасти Peugeot Renault Citroen Краснодар автомагазин P0LLUSauto. пн-пт 10:00-19:00; сб 10:00-19:00; вс 10:00-16:00. Запчасти FORD легковые микроавтобусы Краснодар магазин на Фадеева. пн-пт 09:00-17:30; сб 09:00-14:00; вс выходной. Скрыть</t>
+  </si>
+  <si>
+    <t>Купить запчасти для тракторов в Краснодаре, сравнить...</t>
+  </si>
+  <si>
+    <t>krasnodar.blizko.ru</t>
+  </si>
+  <si>
+    <t>Если вам нужно купить запчасти для тракторов, чтобы держать в рабочем состоянии сельскохозяйственную или коммунальную технику, заходите на Blizko – здесь... Читать ещёЕсли вам нужно купить запчасти для тракторов, чтобы держать в рабочем состоянии сельскохозяйственную или коммунальную технику, заходите на Blizko – здесь можно сравнить цены на запчасти для тракторов в Краснодаре и выгодно купить запчасти для тракторов через интернет. ... Гарантия на товар от завода производителя. Запчасти оригинальные и аналог (уточняйте у менеджера), под заказ. Безналичный расчет. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов в Краснодаре...</t>
+  </si>
+  <si>
+    <t>krasnodar.spectehinfo.ru</t>
+  </si>
+  <si>
+    <t>В рубрике "Продажа запчастей для тракторов" размещены объявления для тех, кто ищет запчасти для тракторов, от организаций и частных лиц, предлагающих... Читать ещёВ рубрике "Продажа запчастей для тракторов" размещены объявления для тех, кто ищет запчасти для тракторов, от организаций и частных лиц, предлагающих (поставляющих) запчасти для тракторов и тракторной техники. ... Запчасти Кировец, К700, К701Запчасти Кировец, К700, К701. Номер объявления P80-23172, от 1 февраля 2018. Марки. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти на трактора купить в Краснодаре или сравнить...</t>
+  </si>
+  <si>
+    <t>krasnodar.unibo.ru</t>
+  </si>
+  <si>
+    <t>Запчасти на трактор Т-40, Т-16, Т-25, ЛТЗ, Прицеп 2 ПТС вы всегда можете купить через прямого дилера Российских и Белорусских ... Читать ещёЗапчасти на трактор Т-40, Т-16, Т-25, ЛТЗ, Прицеп 2 ПТС вы всегда можете купить через прямого дилера Российских и Белорусских ... С-Агросервис. Краснодар. 25.09.2015. Запчасти на трактор т 30. 750 руб. Запчасти на трактор Т 40. Запчасти на трактор Т-40, Т-16, Т-25, ЛТЗ, Прицеп 2 ПТС вы всегда можете купить через прямого дилера Российских и Белорусских ... С-Агросервис. Краснодар. 25.09.2015. Запчасти на трактор дт 75 chjxyj ghjlfv. 750 руб. Запчасти на трактор Т 40. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов интернет - магазин 1АгроМастер</t>
+  </si>
+  <si>
+    <t>1agromaster.ru</t>
+  </si>
+  <si>
+    <t>Запчасти к тракторам. Магазин запчастей для тракторов в Долгопрудном. Выполнение различных сельскохозяйственных работ невозможно без технически исправных тракторов. Естественно, для любого агрария самой... Читать ещёЗапчасти к тракторам. Магазин запчастей для тракторов в Долгопрудном. Выполнение различных сельскохозяйственных работ невозможно без технически исправных тракторов. Естественно, для любого агрария самой неприятной ситуацией является, когда спецтехника или сельхозтехника выходит из строя прямо во время выполнения посевных работ. Восстановить работоспособность машин специального назначения можно с помощью качественных деталей и комплектующих. Скрыть</t>
+  </si>
+  <si>
     <t>Запчасти для тракторов! Низкая цена! – Доставка по России!</t>
   </si>
   <si>
-    <t>sparox.ru</t>
-  </si>
-  <si>
     <t>Запчасти для тракторов! Широкий ассортимент товара! Выгодная цена! Заказывайте! · Гарантии. Широкий ассортимент. Качество. Оплата онлайн</t>
   </si>
   <si>
-    <t>1Запчасти для тракторов купить в Санкт-Петербурге</t>
-  </si>
-  <si>
-    <t>mtz-market.ru</t>
-  </si>
-  <si>
-    <t>Купить недорого запчасти для тракторов по цене от 2 рублей.🔷 В наличии более 2367 наименований. "МТЗ маркет" в Санкт-Петербурге 📞 +7(812) 449-23-99, время работы с 11:00 до 18:00 без обеда, выходной суббота-воскресенье. Читать ещёКупить недорого запчасти для тракторов по цене от 2 рублей.🔷 В наличии более 2367 наименований. "МТЗ маркет" в Санкт-Петербурге 📞 +7(812) 449-23-99, время работы с 11:00 до 18:00 без обеда, выходной суббота-воскресенье. Скрыть</t>
-  </si>
-  <si>
-    <t>2запчасти трактор - Авито — объявления...</t>
-  </si>
-  <si>
-    <t>Avito.ru</t>
-  </si>
-  <si>
-    <t>Выгодно покупайте и продавайте авто, недвижимость и вещи в Санкт-Петербурге. Находите надёжных исполнителей и работу. Самый популярный сервис объявлений...</t>
-  </si>
-  <si>
-    <t>3Запчасти для тракторов в Санкт-Петербурге купить...</t>
-  </si>
-  <si>
-    <t>ag-se.ru</t>
-  </si>
-  <si>
-    <t>Компания, дорожащая своей репутацией, предлагает запчасти для трактора любой марки и мощности. Изготовленные из самых лучших материалов... Читать ещёКомпания, дорожащая своей репутацией, предлагает запчасти для трактора любой марки и мощности. Изготовленные из самых лучших материалов, детали и агрегаты включаются в каталог только по завершению успешных испытаний и получения сертификата соответствия. В ассортименте предложений найдётся место лишь качественной продукции отечественного и зарубежного производства, вооружённого современным оборудованием и передовыми технологиями. Скрыть</t>
-  </si>
-  <si>
-    <t>4Запчасти для тракторов в Санкт-Петербурге на карте...</t>
-  </si>
-  <si>
-    <t>2gis.ru</t>
-  </si>
-  <si>
-    <t>Результаты поиска по запросу Запчасти для тракторов на карте в Санкт-Петербурге. Читать ещёРезультаты поиска по запросу Запчасти для тракторов на карте в Санкт-Петербурге. © 2GIS, OpenStreetMap contributors. Лицензионное соглашение. Скрыть</t>
-  </si>
-  <si>
-    <t>5Запчасти для тракторов МТЗ и LOVOL. Продажа...</t>
-  </si>
-  <si>
-    <t>Tehnokor.ru</t>
-  </si>
-  <si>
-    <t>Турбо · Каталог запчастей колесных тракторов, погрузчиков и другой строительной и сельхоз техники. ... Поиск запчастей для тракторов и другой спецтехники. Читать ещёКаталог запчастей колесных тракторов, погрузчиков и другой строительной и сельхоз техники. Продажа запасных деталей МТЗ в компании Технокор. ... Поиск запчастей для тракторов и другой спецтехники. Категории Скрыть</t>
-  </si>
-  <si>
-    <t>6Запчасти на трактор в Санкт-Петербурге и Ленинградской области — отзывы, фото, телефоны, адреса</t>
-  </si>
-  <si>
-    <t>Яндекс.Карты</t>
-  </si>
-  <si>
-    <t>Запчасти на трактор в Санкт-Петербурге и Ленинградской области — отзывы, фото, телефоны, адреса с рейтингом, отзывами и фотографиями. Адреса, телефоны, часы работы, схема проезда.</t>
-  </si>
-  <si>
-    <t>7КАТАЛОГ ТОВАРОВ</t>
-  </si>
-  <si>
-    <t>zipspb.com</t>
-  </si>
-  <si>
-    <t>Тракторные запасные части оптом и в розницу в Санкт-Петербурге. ... УЗНАТЬ БОЛЬШЕ. Запасные части для тракторов и специальной техники. Читать ещёТракторные запасные части оптом и в розницу в Санкт-Петербурге. Производство рукавов высокого давления. ... УЗНАТЬ БОЛЬШЕ. Запасные части для тракторов и специальной техники. zipspb78@yandex.ru. написать нам. Скрыть</t>
-  </si>
-  <si>
-    <t>8Интернет магазин запчастей для тракторов...</t>
-  </si>
-  <si>
-    <t>spb.tiu.ru</t>
-  </si>
-  <si>
-    <t>Т 130 трактор запчасти. Запчасти ходовой части. ... Стартер на трактор пр-во Беларусь, Самара СТ-230Е. Доставка из г. Челябинск. Читать ещёТ 130 трактор запчасти. Запчасти ходовой части. Запчасти к сельхозтехнике. Запчасти ЧТЗ. ... Стартер на трактор пр-во Беларусь, Самара СТ-230Е. Доставка из г. Челябинск. 97% из 35. Скрыть</t>
-  </si>
-  <si>
-    <t>9Запчасти для тракторов в Санкт-Петербурге: купить...</t>
-  </si>
-  <si>
-    <t>spb.agroserver.ru</t>
-  </si>
-  <si>
-    <t>Купить запчасти для сельскохозяйственных тракторов, МТЗ John Deere ЯМЗ и других марок от различных производителей - объявления о продаже, цены и спрос в... Читать ещёКупить запчасти для сельскохозяйственных тракторов, МТЗ John Deere ЯМЗ и других марок от различных производителей - объявления о продаже, цены и спрос в Санкт-Петербурге. ... Запасные части на спец и сельхоз импортную технику. ООО "Альфа" тел: +7(921)412-63-66 (Наталья) тел: +7(923)726-94-72 (Никита) skype: oooalfa78 e-mail: oooalfa22@mail.ru сайт: http://oooalfa22.ru/. ООО "АЛЬФА". Скрыть</t>
-  </si>
-  <si>
-    <t>Яндекс.Маркет</t>
-  </si>
-  <si>
-    <t>5 магазинов. Выбор по параметрам. Доставка из магазинов Санкт-Петербурга и других регионов.</t>
-  </si>
-  <si>
-    <t>ТРАК-Центр СПб - запчасти для спецтехники</t>
-  </si>
-  <si>
-    <t>trackspb.ru</t>
-  </si>
-  <si>
-    <t>Продажа запасных частей для спецтехники со склада в Санкт-Петербурге, Лениградской ... Запчасти для отечественной и импортной спецтехники. отечественные запчасти +7 (812) 347-70-70 импортные запчасти +7 (812)... Читать ещёПродажа запасных частей для спецтехники со склада в Санкт-Петербурге, Лениградской, Новгородской, псковской областях и республике Карелия. ... Запчасти для отечественной и импортной спецтехники. отечественные запчасти +7 (812) 347-70-70 импортные запчасти +7 (812) 372-52-72. О компании. КАТАЛОГ. Скрыть</t>
-  </si>
-  <si>
-    <t>Каталог запчастей для сельхозтехники, такторов...</t>
-  </si>
-  <si>
-    <t>astaworld.ru</t>
-  </si>
-  <si>
-    <t>Скидка 25% на работы СТО при покупке запчастей в магазинах АСТА или на astaworld.ru. Запчасти МТЗ. Читать ещёСкидка 25% на работы СТО при покупке запчастей в магазинах АСТА или на astaworld.ru. Запчасти МТЗ. Главная страница &gt; Сельхозтехника &gt; МТЗ. МТЗ-082. МТЗ-80 1998 г. МТЗ-80 (2002) 2002 г. МТЗ-80 (2009) 2009 г. Скрыть</t>
-  </si>
-  <si>
-    <t>Купить запчасти для минитрактора – Сделать заказ!</t>
-  </si>
-  <si>
-    <t>dkchel.ru</t>
-  </si>
-  <si>
-    <t>В наличии/под заказ. Широкий выбор. Доставка трансп. компанией по РФ. Короткие сроки! · Выгодные цены. Быстрая доставка. Высокое качество. Опытный персонал</t>
-  </si>
-  <si>
-    <t>Ходовые системы в наличии! – от производителя</t>
-  </si>
-  <si>
-    <t>chaz-spc.ru</t>
-  </si>
-  <si>
-    <t>Гусеницы и запасные части к сельскохозяйственной и лесозаготовительной технике · Сделано в России. Лучшие цены. ПАО "ЧАЗ". Надежные ходовые системы</t>
-  </si>
-  <si>
-    <t>Купите запчасти для мини-трактора – Широкий выбор!</t>
-  </si>
-  <si>
-    <t>славянский-мост.рф</t>
-  </si>
-  <si>
-    <t>Китай, Япония, Корея. Новые/контрактные. В наличии и под заказ. Доставка из Краснодара. · Надежность. Гибкие условия. Опт/розница. Есть склад в Приморье</t>
-  </si>
-  <si>
-    <t>Запасные части на трактор – Любой опт!</t>
-  </si>
-  <si>
-    <t>czdp.com</t>
-  </si>
-  <si>
-    <t>Запчасти на трактор с завода в Китае. Выгодные цены. Гарантия. · Запчасти Камаз. Запчасти Краз. МАЗ. Белаз. Урал</t>
-  </si>
-  <si>
-    <t>Запасные части к тракторам МТЗ-82 в Санкт-Петербурге.</t>
-  </si>
-  <si>
-    <t>spb.satom.ru</t>
-  </si>
-  <si>
-    <t>Запасные части к тракторам 146. Запчасти и комплектующие к сельхозтехнике ... Запасные части и комплектующие для спецтехники 17. Фронтальные погрузчики 8. Читать ещёЗапасные части к тракторам 146. Запчасти и комплектующие к сельхозтехнике 19. Тракторы 9. Запчасти для прицепной и навесной техники 1. Запасные части и комплектующие для спецтехники 17. Фронтальные погрузчики 8. Навесное оборудование для спецтехники 7. Скрыть</t>
-  </si>
-  <si>
-    <t>Трактора и запчасти к ним в городе Санкт-Петербурге</t>
-  </si>
-  <si>
-    <t>sankt-peterburg.сельхозпортал.рф</t>
-  </si>
-  <si>
-    <t>Тракторы - объявления о продаже, покупке и обмену тракторной техники и запасных частей к ним оптом и в розницу в городе Санкт-Петербурге на доске бесплатных... Читать ещёТракторы - объявления о продаже, покупке и обмену тракторной техники и запасных частей к ним оптом и в розницу в городе Санкт-Петербурге на доске бесплатных объявлений Сельхозпортал.рф. ... Продаю мощный гусеничный бульдозер Komatsu D475A-6, год выпуска 2017, наработка 4 тыс. м/час, состояние отличное. Укомплектован одинарным рыхлителем и полусферическим... метро Автово - Тракторы. 55 000 000.00. Вчера в 19:43. Скрыть</t>
-  </si>
-  <si>
-    <t>Отечественные запчасти для спецтехники от ООО...</t>
-  </si>
-  <si>
-    <t>smsspb.com</t>
-  </si>
-  <si>
-    <t>Надежные и износостойкие запчасти для отечественной спецтехники. ... как бульдозеры и экскаваторы, автогрейдеры и погрузчики, тракторы и автокраны... Читать ещёНадежные и износостойкие запчасти для отечественной спецтехники. Такие виды сельскохозяйственного, строительного, коммунального оборудования, как бульдозеры и экскаваторы, автогрейдеры и погрузчики, тракторы и автокраны постоянно подвергаются нагрузкам, поскольку они созданы для работы в тяжелых условиях. Ни одна даже самая дорогостоящая машина от лучшего производителя не может исправно выполнять свои функции вечно. Скрыть</t>
-  </si>
-  <si>
-    <t>Запчасти для сельхозтехники (тракторов мтз, юмз...)</t>
-  </si>
-  <si>
-    <t>saint-petersburg.big-book-avto.ru</t>
-  </si>
-  <si>
-    <t>Ищете магазин, где Вы сможете ознакомиться с ценами и купить запчасти для сельхозтехники? Поможем узнать цены, найти отзывы и фотографии... Читать ещёИщете магазин, где Вы сможете ознакомиться с ценами и купить запчасти для сельхозтехники? Поможем узнать цены, найти отзывы и фотографии, посмотреть адрес на карте. Запчасти для сельхозтехники (тракторов мтз, юмз, т) - 33 объекта на карте Санкт-Петербурга. Запчасти по виду транспортного средства. Запчасти для легковых авто. Запчасти для грузовых авто. Скрыть</t>
-  </si>
-  <si>
-    <t>Запчасти для тракторов купить в Санкт-Петербурге по...</t>
-  </si>
-  <si>
-    <t>spb.pulscen.ru</t>
-  </si>
-  <si>
-    <t>Запчасти для тракторов в Санкт-Петербурге, купить товары у надежных компаний и поставщиков по выгодной цене. Отправьте заказ или напишите сообщение. Товары и услуги Компании. Закупки. Запчасти для тракторов. 60 поставщиков. Читать ещёЗапчасти для тракторов в Санкт-Петербурге, купить товары у надежных компаний и поставщиков по выгодной цене. Отправьте заказ или напишите сообщение. Товары и услуги Компании. Закупки. Запчасти для тракторов. 60 поставщиков. Гидравлика Автооборудование. По рейтингу По цене (сначала дешевле) По цене (сначала дороже). Цена: – Гидравлико-трансмиссионное масло для тракторов MOL Farm JD 180 кг. 57 698.90 руб. В наличии. Скрыть</t>
-  </si>
-  <si>
-    <t>Купить запчасти для МТЗ в СПб. Цены на зч для...</t>
-  </si>
-  <si>
-    <t>dorstroyavto.ru</t>
-  </si>
-  <si>
-    <t>Стоимость запасных частей и комплектующих для тракторов МТЗ 80, 82, 1221, 320 от официального дилера с доставкой по ... Скидки и распродажа на запчасти МТЗ.</t>
-  </si>
-  <si>
-    <t>Купить тракторы, запчасти для тракторов... - BLIZKO</t>
-  </si>
-  <si>
-    <t>spb.blizko.ru</t>
-  </si>
-  <si>
-    <t>Если вам нужно купить тракторы, запчасти для тракторов, чтобы использовать на предприятии или для личного хозяйства, заходите на портал Blizko... Читать ещёЕсли вам нужно купить тракторы, запчасти для тракторов, чтобы использовать на предприятии или для личного хозяйства, заходите на портал Blizko – здесь можно сравнить цены на тракторы, запчасти для тракторов в Санкт-Петербурге и узнать, где выгодно купить тракторы, запчасти для тракторов. Скрыть</t>
-  </si>
-  <si>
-    <t>Запчасти для минитракторов и тракторов</t>
-  </si>
-  <si>
-    <t>spb.amttraktor.ru</t>
-  </si>
-  <si>
-    <t>Запчасти для китайских минитракторов и тракторов в Москве и Московской области с доставкой по РФ . Трактора Донгфенг( dongfeng) Синтай (xingtai), Джинма (jinma), Уралец, Брэнсон (branson), Скаут (scout), Чери ( Chery) ,Булат(bulat)... Читать ещёЗапчасти для китайских минитракторов и тракторов в Москве и Московской области с доставкой по РФ . Трактора Донгфенг( dongfeng) Синтай (xingtai), Джинма (jinma), Уралец, Брэнсон (branson), Скаут (scout), Чери ( Chery) ,Булат(bulat), Киоти (Kioti) , МТЗ ( - купить с доставкой в Санкт-Петербурге, цены, фото, характеристики. Большой выбор и свой сервисный центр. ООО Агро Мото Техника. Скрыть</t>
-  </si>
-  <si>
-    <t>Сельхозтехника и запчасти для тракторов...</t>
-  </si>
-  <si>
-    <t>szo.spr.ru</t>
-  </si>
-  <si>
-    <t>53. Мир тракторов, тракторы. Новое Девяткино дер., Главная ул., 22. ... Кировец-Регион, запчасти тракторов. Санкт-Петербург г., Стачек просп., 47 Лит Е. Сайт kirovets-region.r... Читать ещё53. Мир тракторов, тракторы. Новое Девяткино дер., Главная ул., 22. Сайт traktorspb.r... ... Кировец-Регион, запчасти тракторов. Санкт-Петербург г., Стачек просп., 47 Лит Е. Сайт kirovets-region.r... Скрыть</t>
-  </si>
-  <si>
-    <t>запчасти для тракторов в Санкт-Петербурге...</t>
-  </si>
-  <si>
-    <t>spectraksnab.ru</t>
-  </si>
-  <si>
-    <t>Запчасти для тракторов и спецтехники в Санкт-Петербурге Специализированное Снабжение. У нас Вы можете заказать запчасти таких брендов, как Valtra, Sampo-Rosenlew,Volvo, Caterpillar, John Deere, Case, Komatsu, Hitachi, Terex и... Читать ещёЗапчасти для тракторов и спецтехники в Санкт-Петербурге Специализированное Снабжение. У нас Вы можете заказать запчасти таких брендов, как Valtra, Sampo-Rosenlew,Volvo, Caterpillar, John Deere, Case, Komatsu, Hitachi, Terex и многих других производителей. ООО «Специализированное Снабжение» поможет Вам приобрести запчасти от производителя в любой стране Евросоюза, странах ATR, США. Скрыть</t>
-  </si>
-  <si>
-    <t>Запчасти для тракторов серии "КИРОВЕЦ..." — РусТрак</t>
-  </si>
-  <si>
-    <t>rustrac.ru</t>
-  </si>
-  <si>
-    <t>Магазин запчастей для тракторов РусТрак предлагает запасные части для тракторов СПб. У нас вы можете купить запчасти для тракторов серии Кировец по... Читать ещёМагазин запчастей для тракторов РусТрак предлагает запасные части для тракторов СПб. У нас вы можете купить запчасти для тракторов серии Кировец по минимальным ценам в СПб или с доставкой по РФ. ... Основным направлением компании ООО "РусТрак» является поставка запасных частей к тракторам серии "КИРОВЕЦ" и различной дорожно-строительной техники на их базе. Скрыть</t>
-  </si>
-  <si>
-    <t>Запчасти для спецтехники в Санкт-Петербурге...</t>
-  </si>
-  <si>
-    <t>traktorzapchast.ru</t>
-  </si>
-  <si>
-    <t>Компания TrakTOR является поставщиком запчастей и комплектующих для спецтехники известных брендов. Поможем подобрать недорогие детали для импортной, в том числе корейской техники оптом и в розницу. Читать ещёКомпания TrakTOR является поставщиком запчастей и комплектующих для спецтехники известных брендов. Поможем подобрать недорогие детали для импортной, в том числе корейской техники оптом и в розницу. Скрыть</t>
-  </si>
-  <si>
-    <t>Агролавка - Запчасти для тракторов</t>
-  </si>
-  <si>
-    <t>agro-lavka.ru</t>
-  </si>
-  <si>
-    <t>Запчасти для тракторов. Запчасти ДТ-75. Запчасти МТЗ 80/82. ... Нет подкатегорий. Запчасти Т-150. Читать ещёЗапчасти для тракторов. Запчасти ДТ-75. Запчасти МТЗ 80/82. ... Нет подкатегорий. Запчасти Т-150. Нет подкатегорий. Запчасти К-700. Нет подкатегорий. Запчасти Т-4. Нет подкатегорий. Запчасти МТЗ-1221. Скрыть</t>
-  </si>
-  <si>
-    <t>Запчасти к тракторам: Кировец, ХТЗ, МТЗ. Оптовые цены!</t>
-  </si>
-  <si>
-    <t>spbrevers.ru</t>
-  </si>
-  <si>
-    <t>Интернет-магазин запчастей к тракторам. ООО "Реверс" г. Санкт-Петербург предлагает запчасти для тракторов: - Кировец: К-700, К-701, К-700А, К-702, К-744; - ХТЗ: Т-150; - МТЗ: МТЗ-80, МТЗ-82, Беларус-2103, Беларус-1221... Читать ещёИнтернет-магазин запчастей к тракторам. ООО "Реверс" г. Санкт-Петербург предлагает запчасти для тракторов: - Кировец: К-700, К-701, К-700А, К-702, К-744; - ХТЗ: Т-150; - МТЗ: МТЗ-80, МТЗ-82, Беларус-2103, Беларус-1221, Беларус-3522; Купить запчасти на трактора вы можете через каталог интернет-магазина, в наших офисах (г.Санкт-Петербург, Ставрополь, Казань), через чат, позвонив по телефону 8 800 350-83-37 или отправив заявку на www@spbrevers.ru. Скрыть</t>
-  </si>
-  <si>
-    <t>Запчасти МТЗ — Автопитер</t>
-  </si>
-  <si>
-    <t>autopiter.ru</t>
-  </si>
-  <si>
-    <t>Оптовая и розничная продажа запчастей и аксессуаров МТЗ. Низкие цены на весь ассортимент товаров. Интернет магазин автозапчастей МТЗ.</t>
-  </si>
-  <si>
-    <t>Спецтехника на запчасти МТЗ в Санкт-Петербурге</t>
-  </si>
-  <si>
-    <t>spec.drom.ru</t>
-  </si>
-  <si>
-    <t>Грузовики и спецтехника МТЗ на запчасти. ... Запчасти для МТЗ в Санкт-Петербурге. Спецтехника МТЗ в разбор. Модель. Читать ещёГрузовики и спецтехника МТЗ на запчасти. Спецтехника на запчасти МТЗ в Санкт-Петербурге. Запчасти для МТЗ в Санкт-Петербурге. Спецтехника МТЗ в разбор. Модель. Скрыть</t>
-  </si>
-  <si>
-    <t>Запчасти для тракторов - Каталог фирм и организаций...</t>
-  </si>
-  <si>
-    <t>st-petersburg.cataloxy.ru</t>
-  </si>
-  <si>
-    <t>Запчасти для тракторов - В данном разделе представлен каталог фирм в Санкт-Петербургe с указанием телефонов и адресов. Также вы найдёте полный... Читать ещёЗапчасти для тракторов - В данном разделе представлен каталог фирм в Санкт-Петербургe с указанием телефонов и адресов. Также вы найдёте полный список товаров и услуг с ценами. Для регистрации своей компании заполните соответствующую форму. ... Условия поиска:«запчасти для тракторов», город Санкт-Петербург. Изменить / Отменить условия поиска. Компаний : 3510090Вакансий : 850529Объявлений : 16793329. Фирмы России Фирмы Ленинградской области. Скрыть</t>
+    <t>Запчасти на тракторы и сельхозтехнику купить...</t>
+  </si>
+  <si>
+    <t>krd.zao-sms.ru</t>
+  </si>
+  <si>
+    <t>Запчасти на тракторы и сельхозтехнику. Менеджер: Филиал в г. Краснодаре Телефон: +7 (861) 260-22-06 E-mail: info@zao-sms.ru. Читать ещёЗапчасти на тракторы и сельхозтехнику. Менеджер: Филиал в г. Краснодаре Телефон: +7 (861) 260-22-06 E-mail: info@zao-sms.ru. Скачать в формате xlsx. Данное предложение не является публичной офертой! Цены могут отличаться. Для получения информации о продукции и ценах просим обращаться по телефону: +7 (495) 785-65-75 (многоканальный). Ремкомплекты для тракторов и сельхозтехники. Сеялки. Скрыть</t>
+  </si>
+  <si>
+    <t>Купить запчасти для сельхозтехники в Краснодаре дешево</t>
+  </si>
+  <si>
+    <t>oooabn.ru</t>
+  </si>
+  <si>
+    <t>Предлагаем вам купить запчасти для импортной сельхозтехники в Краснодаре по выгодным ценам. Наши специалисты готовы проконсультировать Вас по телефону. Читать ещёПредлагаем вам купить запчасти для импортной сельхозтехники в Краснодаре по выгодным ценам. Наши специалисты готовы проконсультировать Вас по телефону. ... Любой аграрий знает, что к техническому состоянию сельскохозяйственного оборудования предъявляются повышенные требования, поэтому покупать запчасти для сельхозтехники в Краснодаре следует исключительно высокого качества и у проверенных поставщиков. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов в Краснодаре предложения о покупке, продаже товаров и услуг от ведущих поставщиков и производителей Краснодара. Читать ещёЗапчасти для тракторов в Краснодаре предложения о покупке, продаже товаров и услуг от ведущих поставщиков и производителей Краснодара. Продать, купить, узнать цены можно быстро и удобно. Cтраница 2. Реализуем гидрораспределитель К-701 (сельхоз) Р-160-1/3-222. ... Хотите, чтобы ваши товары или услуги, показывались в данной категории, тогда регистрируйтесь и добавляйте свои предложения. Смотрите также эту продукцию в соседних регионах Скрыть</t>
+  </si>
+  <si>
+    <t>«АгроМеханик» - интернет магазин запчастей для...</t>
+  </si>
+  <si>
+    <t>agromechanic.ru</t>
+  </si>
+  <si>
+    <t>«АгроМеханик» - Официальный сайт запчастей. Купить Запчасти для CLAAS ... Мы предлагаем сельскохозяйственные запчасти на большое количество видов комбайнов. Преимущества. Читать ещё«АгроМеханик» - Официальный сайт запчастей. Купить Запчасти для CLAAS , John Deere, New Holland , Laverda, Case IH , Ростсельмаш, Гомсельмаш, Massey Ferguson, Deutz-Fahr, Fendt, Sampo Rosenlew, Challenger, Жаток навесных, agromechanic.ru . Склад запчастей, для сельскохозяйственной техники. Интернет магазин запчастей. ... Мы предлагаем сельскохозяйственные запчасти на большое количество видов комбайнов. Преимущества. Скрыть</t>
+  </si>
+  <si>
+    <t>+7 (968) 300-XX-XX Показать+7 (968) 300-03-33</t>
+  </si>
+  <si>
+    <t>Каталог компаний: запчасти для тракторов</t>
+  </si>
+  <si>
+    <t>Купить запчасти для сельскохозяйственных тракторов, МТЗ John Deere ЯМЗ и других марок от различных производителей - объявления о продаже, цены и спрос. Читать ещёКупить запчасти для сельскохозяйственных тракторов, МТЗ John Deere ЯМЗ и других марок от различных производителей - объявления о продаже, цены и спрос. ... ООО "Агросервис" является официальным дилером по поставкам сельхозтехники Case Ih, New Holland, Cummins, Kverneland, Kongskilde, Dieci в ЮФО. На нашей промплощадке создан современный сервисный центр, где мы проводим регламентные и ремонтные рабо... Запчасти для тракторов (1). Скрыть</t>
+  </si>
+  <si>
+    <t>Каталог запчастей на отечественную сельхозтехнику</t>
+  </si>
+  <si>
+    <t>atldon.ru</t>
+  </si>
+  <si>
+    <t>Переоборудование тракторов (12). ... Основное направления нашей деятельности: продажа запчастей на отечественную сельскохозяйственную технику. Читать ещёПереоборудование тракторов (12). Сцепление (16). Топливная аппаратура ТНВД (29). ... Основное направления нашей деятельности: продажа запчастей на отечественную сельскохозяйственную технику. НАШИ КОНТАКТЫ. г.Ростов-на-Дону ул.Всесоюзная 139. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов в Краснодарском крае...</t>
+  </si>
+  <si>
+    <t>В рубрике "Продажа запчастей для тракторов" размещены объявления для тех, кто ищет запчасти для тракторов, от организаций и частных лиц, предлагающих... Читать ещёВ рубрике "Продажа запчастей для тракторов" размещены объявления для тех, кто ищет запчасти для тракторов, от организаций и частных лиц, предлагающих (поставляющих) запчасти для тракторов и тракторной техники. ... Запчасти к тракторам семейства Кировец, различной ценовой категории,ремонт тракторов, узлов и агрегатов. Доставка, гарантия.Посмотреть полностью. 7 фото. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти для тракторов — ООО С-Агросервис</t>
+  </si>
+  <si>
+    <t>s-agroservis.ru</t>
+  </si>
+  <si>
+    <t>Купить запчасти для тракторов предлагает компания «С-Агросервис». Поставляем сертифицированные детали высокого качества по доступным ценам. Читать ещёКупить запчасти для тракторов предлагает компания «С-Агросервис». Поставляем сертифицированные детали высокого качества по доступным ценам. В каталоге – запчасти на трактора Т-16, Т-25, Т-40, Т -150, ЮМЗ, МТЗ. ... Запчасти к тракторам. С проблемой выхода сельскохозяйственной техники из строя хотя бы раз в жизни сталкивался каждый из ее владельцев. Скрыть</t>
+  </si>
+  <si>
+    <t>Запасные части, запчасти ТДТ-55 / altaiagromash.ru</t>
+  </si>
+  <si>
+    <t>altaiagromash.ru</t>
+  </si>
+  <si>
+    <t>Реализуем все запасные части, запчасти и комплектующие для Трактора ТДТ-55</t>
+  </si>
+  <si>
+    <t>+7 (3852) 53-40-94</t>
+  </si>
+  <si>
+    <t>Запасные части к тракторам</t>
+  </si>
+  <si>
+    <t>shop.optorg.ru</t>
+  </si>
+  <si>
+    <t>Запасные части к тракторам. | Фильтр товара. Категории товара. Сельхозтехника и запчасти (22221). Читать ещёЗапасные части к тракторам. | Фильтр товара. Категории товара. Сельхозтехника и запчасти (22221). Запасные части для сельскохозяйственной техники (22155). Запасные части к тракторам (5697). Запасные части к тракторам «МТЗ» (2326). Запасные части к двигателям производства ПО «МТЗ» (1212). Запасные части к тракторам ДТ-75 (596). Запасные части к тракторам Т-150 (508). Запасные части к тракторам ЮМЗ, Т-16, Т-25, Т-40 (1030). Запасные части к тракторам Т-130 (25). Скрыть</t>
+  </si>
+  <si>
+    <t>Купить запчасти для тракторов МТЗ, Т 25, Т 40, ДТ 75...</t>
+  </si>
+  <si>
+    <t>konsulavto.ru</t>
+  </si>
+  <si>
+    <t>Магазин запчастей для тракторов предлагает различные комплектующие для МТЗ 80, МТЗ 82, Т 25, Т 40, ДТ 75, ЮМЗ, Т 150 и другой сельхозтехники.</t>
+  </si>
+  <si>
+    <t>Запчасти для трактора Кировец - ремонт тракторов...</t>
+  </si>
+  <si>
+    <t>krasnodar.mahovik.ru</t>
+  </si>
+  <si>
+    <t>Каталог запчастей для трактора Кировец в Краснодаре по отличным ценам. По всем вопросам обращайтесь по телефону 8-800-1007444. Читать ещёКаталог запчастей для трактора Кировец в Краснодаре по отличным ценам. По всем вопросам обращайтесь по телефону 8-800-1007444. ... С 1994г. осуществляем комплексные поставки запчастей к тракторам серии «Кировец» К-700А, К-701, К-702, УДМ, К-744, К-703. На все запчасти даем гарантию. Скидки до 50%. Запчасти для тракторов Кировец по специальным ценам. ПОЛУЧИТЬ СКИДКУ. Подписка на скидки. Скрыть</t>
+  </si>
+  <si>
+    <t>ООО "Агромеханик" — сельхозтехника, сельхоззапчасти</t>
+  </si>
+  <si>
+    <t>agromehanik.ru</t>
+  </si>
+  <si>
+    <t>В нашем перечне имеются запчасти к тракторам МТЗ, к культиваторам КПС, КРН, к косилкам КРН, КИР, КСФ, Wirax, к плугам ПЛН, к опрыскивателям польского производства, а также фильтра, ремни, подшипники, РВД и т.д... Читать ещёВ нашем перечне имеются запчасти к тракторам МТЗ, к культиваторам КПС, КРН, к косилкам КРН, КИР, КСФ, Wirax, к плугам ПЛН, к опрыскивателям польского производства, а также фильтра, ремни, подшипники, РВД и т.д. Скрыть</t>
+  </si>
+  <si>
+    <t>Запасные части к тракторам в Краснодарском крае...</t>
+  </si>
+  <si>
+    <t>bizorg.su</t>
+  </si>
+  <si>
+    <t>Автомобильные запчасти и комплектующие. Запасные части к автотракторной ... Запасные части к тракторам – реальные цены, фотографии и отзывы о продукции в каталоге Bizorg. Показано 1-100 из 5150. Электродвигатель к... Читать ещёАвтомобильные запчасти и комплектующие. Запасные части к автотракторной, сельскохозяйственной спецтехнике. Запасные части к тракторам. Запасные части к тракторам в Краснодарском крае. Запасные части к тракторам в Краснодарском крае – проверенные, актуальные товары от 93 поставщиков ... Запасные части к тракторам – реальные цены, фотографии и отзывы о продукции в каталоге Bizorg. Показано 1-100 из 5150. Электродвигатель к Сепаратору Мотор Сич 100. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти МТЗ, купить запасные части МТЗ, цена</t>
+  </si>
+  <si>
+    <t>traktor-teh.ru</t>
+  </si>
+  <si>
+    <t>Покупайте запчасти МТЗ по низкой цене от руб. с гарантией качества в лучшем интернет-магазине ... У нас всегда большой ассортимент запасных частей МТЗ... Читать ещёПокупайте запчасти МТЗ по низкой цене от руб. с гарантией качества в лучшем интернет-магазине запчастей МТЗ. Мы доставим запчасти МТЗ быстро и в удобное для вас время. У нас всегда большой ассортимент запасных частей МТЗ, высокое качество и быстрая доставка по России. Скрыть</t>
+  </si>
+  <si>
+    <t>Запчасти для трактора, купить тракторные запчасти...</t>
+  </si>
+  <si>
+    <t>rusagroset.ru</t>
+  </si>
+  <si>
+    <t>Оптовая и розничная продажа запасных частей для тракторов, грузовых автомобилей, сельскохозяйственных машин и пр. Способы и условия доставки. Варианты оплаты.</t>
+  </si>
+  <si>
+    <t>Купить Китай Тракторных Деталей И Трактор Запасных...</t>
+  </si>
+  <si>
+    <t>russian.alibaba.com</t>
+  </si>
+  <si>
+    <t>OEM запчасти для трактора металлические запасные части для тракторов. ... Китай поставщик вал стальной поковки Трактор Запасные части. 3,00 $-50,00 $ / шт. 500 шт. Читать ещёOEM запчасти для трактора металлические запасные части для тракторов. 2,18 $-3,28 $ / шт. 500 шт. ... Китай поставщик вал стальной поковки Трактор Запасные части. 3,00 $-50,00 $ / шт. 500 шт. Скрыть</t>
+  </si>
+  <si>
+    <t>Каталог запчастей для тракторов МТЗ, ДТ, ЮМЗ...</t>
+  </si>
+  <si>
+    <t>zapchastimtz.ru</t>
+  </si>
+  <si>
+    <t>Запасные части к Плугам: ПЛН / ПНЛ; Культиваторам: КПС, КСО, КРН-5,6, КПК, КШУ, КПЭ; Дискаторам: БДМ, БДТ. ... Запчасти для сеялок СУПН-8 27 января 2019. Меню. Главная. Каталог. Сельхоз запчасти. Новости. Контакты. Читать ещёЗапасные части к Плугам: ПЛН / ПНЛ; Культиваторам: КПС, КСО, КРН-5,6, КПК, КШУ, КПЭ; Дискаторам: БДМ, БДТ. Copyright MAXXmarketing GmbH. О компании. ... Запчасти для сеялок СУПН-8 27 января 2019. Меню. Главная. Каталог. Сельхоз запчасти. Новости. Контакты. Скрыть</t>
+  </si>
+  <si>
+    <t>+7 (903) 450-XX-XX Показать+7 (903) 450-08-04</t>
+  </si>
+  <si>
+    <t>+7 (918) 978-XX-XX Показать+7 (918) 978-18-90</t>
+  </si>
+  <si>
+    <t>+7 (800) 707-XX-XX Показать+7 (800) 707-33-96</t>
+  </si>
+  <si>
+    <t>+86 (577) 65X-XXX-XX Показать+86 (577) 656-258-68</t>
   </si>
 </sst>
 </file>
@@ -653,17 +800,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.5" customWidth="1"/>
-    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -676,162 +824,198 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -839,486 +1023,863 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>48</v>
       </c>
-      <c r="D47" t="s">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Parser_YD_GOO.xlsx
+++ b/Parser_YD_GOO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="3525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,311 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+  <si>
+    <t>п\п</t>
+  </si>
+  <si>
+    <t>Ключ</t>
+  </si>
+  <si>
+    <t>Название компании</t>
+  </si>
+  <si>
+    <t>Позиция</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Быстрая</t>
+  </si>
+  <si>
+    <t>Описалово</t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>﻿бухгалтерские услуги</t>
+  </si>
+  <si>
+    <t>Бухгалтерское обслуживание – От 1 175р./мес.</t>
+  </si>
+  <si>
+    <t>bo.1cborc.ru</t>
+  </si>
+  <si>
+    <t>Экспресс-аудит бухучетаТарифыМат. ответ-ть350+ довольных клиентов</t>
+  </si>
+  <si>
+    <t>Лицензия 1С включена в стоимость. Грамотное ведение бух. и нал. учета ООО и ИП. · Расчет заработной платы. Учет кадров. Расчет налогов. Составление отчетности. Сдача нулевой отчетности. Рег-я/ликвидация ООО/ИП</t>
+  </si>
+  <si>
+    <t>+7 (812) 385-15-85</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги. Комплекс – от 1200 ₽/мес в СПБ!</t>
+  </si>
+  <si>
+    <t>buhgalter.1cbo.ru</t>
+  </si>
+  <si>
+    <t>Комплекс от 1200₽/месОтчётность от 784₽/месПрограммы уже в тарифе</t>
+  </si>
+  <si>
+    <t>Доверьте бухучёт 1С:БО. 100% автоматизация сервиса, низкая стоимость. Качество! · 24500 клиентов. 724 партнёра. 204 города. 28 лет опыта. 830 отзывов</t>
+  </si>
+  <si>
+    <t>+7 (499) 976-15-11</t>
+  </si>
+  <si>
+    <t>Бухгалтерский учет – На аутсорсинге</t>
+  </si>
+  <si>
+    <t>bs47.ru</t>
+  </si>
+  <si>
+    <t>Связаться с намиО насУслуги1С в облаке</t>
+  </si>
+  <si>
+    <t>Бухгалтерский учет, оптимизация налогообложения. Профессиональный подход. Звоните! · Всегда на связи. Фин. гарантии. Постоплата по договору. Облачная 1С</t>
+  </si>
+  <si>
+    <t>+7 (911) 240-00-10</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги – Консультация бесплатно!</t>
+  </si>
+  <si>
+    <t>nvk-consult.ru</t>
+  </si>
+  <si>
+    <t>Бухгалтерский учетЮридические услугиАудит компанийЦены на услуги</t>
+  </si>
+  <si>
+    <t>Ответим на вопросы по бухгалтерскому и налоговому учету. Составлению отчетности. · Весь спектр услуг. 13 лет опыта. Доступные цены. Уменьшаем налоги</t>
+  </si>
+  <si>
+    <t>+7 (812) 332-05-80</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги – Мегаконсалт</t>
+  </si>
+  <si>
+    <t>megaconsult.ru</t>
+  </si>
+  <si>
+    <t>УслугиЦеныДля ИП от 3 400 руб/месДля ООО от 4 000 руб/мес</t>
+  </si>
+  <si>
+    <t>Говорим с клиентом на одном языке. С нами вы поймёте, за что отдаёте деньги. Звоните! · Налоговые консультации. Ведение кадров. Расчёт з/п. Эффективная бухгалтерия</t>
+  </si>
+  <si>
+    <t>+7 (812) 425-32-38</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги в СПб – Под ключ.</t>
+  </si>
+  <si>
+    <t>efafinance-uslugi.ru</t>
+  </si>
+  <si>
+    <t>Бесплатная консультацияСтоимостьУслугиОтзывы</t>
+  </si>
+  <si>
+    <t>Цены от 1500 руб/месяц. 10 лет на рынке. Оставьте заявку на консультацию. · Быстро. Надежно. Комплексно</t>
+  </si>
+  <si>
+    <t>8 (800) 707-03-64</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги – Со скидкой 50%</t>
+  </si>
+  <si>
+    <t>algras.ru</t>
+  </si>
+  <si>
+    <t>[Сравните цены][Ведение ООО и ИП][Получи 10%, 20%, 50%][C нуля]</t>
+  </si>
+  <si>
+    <t>1 месяц за пол цены! Работаем в онлайн режиме! Бухгалтерские услуги от 500 руб. · Весь цикл услуг. Отзывы. Отвечаем в теч 15-30 мин. Доступ к 1С 24/7</t>
+  </si>
+  <si>
+    <t>+7 (812) 317-22-07</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги! / accountingfinance.ru</t>
+  </si>
+  <si>
+    <t>accountingfinance.ru</t>
+  </si>
+  <si>
+    <t>Профессиональная бухгалтерия под ключ от 1 000 рублей в месяц! Звоните!</t>
+  </si>
+  <si>
+    <t>+7 (812) 309-98-35</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги в СПб – Акция: подарок на выбор</t>
+  </si>
+  <si>
+    <t>декларация.com</t>
+  </si>
+  <si>
+    <t>Аутсорсинг бухгалтерииКонсалтингРекрутинг и КДПАудит бухгалтерии</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги. Решаем сложные вопросы в сжатые сроки. Детально консультируем! · Гибкие цены. Правильная консультация. Точно в срок. Качественно</t>
+  </si>
+  <si>
+    <t>+7 (981) 802-26-69</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги. – Сдача отчётности ИП и ООО</t>
+  </si>
+  <si>
+    <t>moedelo.org</t>
+  </si>
+  <si>
+    <t>Снижаем налогиБесплатный демо-доступООО и ИПСтрахуем на 100 млн.</t>
+  </si>
+  <si>
+    <t>Бухгалтерские услуги. Законно снижаем налоги. Компания «Моё дело». Кликай. · Поддержка 24/7. Цена. Отчетность ООО. Отчетность ИП</t>
+  </si>
+  <si>
+    <t>+7 (800) 200-77-27</t>
+  </si>
+  <si>
+    <t>бухгалтерский аудит</t>
+  </si>
+  <si>
+    <t>Бухгалтерский аудит от 1С:БО – за 4 часа бесплатно!</t>
+  </si>
+  <si>
+    <t>Как избежать штрафовАудит нужен или нетУдобный форматОт вас заявка</t>
+  </si>
+  <si>
+    <t>Пройдите бесплатно экспресс-аудит 1С:БухОбслуживание и наведите порядок в бухучете! · Аудит бесплатно. Быстро за 4 часа. Помощь в бухучете. Конфиденциально · 18+</t>
+  </si>
+  <si>
+    <t>Бухгалтерский аудит – с «Бизнес Консалт»</t>
+  </si>
+  <si>
+    <t>bkonsalt.ru</t>
+  </si>
+  <si>
+    <t>Обязательный аудитИнициативный аудитАудит по МСФОГарантировано</t>
+  </si>
+  <si>
+    <t>Независимое аудит-заключение с сохранением тайны! Работаем с 2011 г. Узнайте цены! · Стаж более 10 лет. Член СРО аудиторов. Консультации бесплатно</t>
+  </si>
+  <si>
+    <t>+7 (812) 449-42-90</t>
+  </si>
+  <si>
+    <t>Аудиторское заключение 30 тыс.руб.! / irene-audit.ru</t>
+  </si>
+  <si>
+    <t>irene-audit.ru</t>
+  </si>
+  <si>
+    <t>Успейте заключить договор на аудит для сдачи баланса до 6 апреля!</t>
+  </si>
+  <si>
+    <t>Обязательный бухгалтерский аудит – Закажите онлайн!</t>
+  </si>
+  <si>
+    <t>pia.ru</t>
+  </si>
+  <si>
+    <t>Юридические услугиУслуги по оценкеКонсалтингУслуги аудита</t>
+  </si>
+  <si>
+    <t>Лицензия ФСБ РФ. Прошли плановые проверки СРО. Контроль качества! Санкт-Петербург. · Доступные цены. Работаем 25 лет. Профессионально. Опытный персонал</t>
+  </si>
+  <si>
+    <t>+7 (812) 297-45-01</t>
+  </si>
+  <si>
+    <t>Сдача бухгалтерской отчетности – 1600₽/г - все включено!</t>
+  </si>
+  <si>
+    <t>taxcom.ru</t>
+  </si>
+  <si>
+    <t>Эл. документооборотЭЦП за 0 ₽Такском-ИнформерКалендарь бухгалтера</t>
+  </si>
+  <si>
+    <t>Быстрая и удобная сдача отчетов. Проверка на ошибки. Уведомления на телефон. · 20 лет опыта. Доверие 800000 клиентов. Отчет без ошибок</t>
+  </si>
+  <si>
+    <t>+7 (800) 300-64-86</t>
+  </si>
+  <si>
+    <t>Аудит 30 тыс.руб.! Онлайн / audit-search.ru</t>
+  </si>
+  <si>
+    <t>audit-search.ru</t>
+  </si>
+  <si>
+    <t>Не покупайте аудит пока не узнаете цену у нас! Гарантии возврата денег! Вся Россия!</t>
+  </si>
+  <si>
+    <t>Аутсорсинг бухгалтерских услуг в Москве, цены...</t>
+  </si>
+  <si>
+    <t>Снижение налоговКонтроль учетаИП и ОООСтрахуем на 100 млн</t>
+  </si>
+  <si>
+    <t>Команда аутсорсинг-бухгалтеров под вашу отрасль. Удобное приложение для контроля. · Бухгалтер. Юрист. Бизнес-ассистент. Оптимизация налогов. Удалённая бухгалтерия</t>
+  </si>
+  <si>
+    <t>Аудит бухгалтерии – от 450 руб/мес для ИП и ООО</t>
+  </si>
+  <si>
+    <t>авизопрофи.рф</t>
+  </si>
+  <si>
+    <t>Скидки и акцииДля нового бизнесаНаш опыт работыКак мы работаем</t>
+  </si>
+  <si>
+    <t>Качественный аутсорсинг бухгалтерии. Оптимизация расходов. Поддержка 24/7. Звоните! · Исключаем штрафы. Ежемесячные отчеты. Бесплатные консультации. Матер. ответственность</t>
+  </si>
+  <si>
+    <t>+7 (982) 696-35-40</t>
+  </si>
+  <si>
+    <t>Аудиторские услуги. 24 года опыта! / finauditservice.ru</t>
+  </si>
+  <si>
+    <t>finauditservice.ru</t>
+  </si>
+  <si>
+    <t>О насУслугиОтзывыКонтакты</t>
+  </si>
+  <si>
+    <t>АКГ "Финаудитсервис". Высокое качество! Разумные цены! Обращайтесь!</t>
+  </si>
+  <si>
+    <t>+7 (499) 397-85-35</t>
+  </si>
+  <si>
+    <t>Работа бухгалтером по зарплате в Санкт-Петербурге...</t>
+  </si>
+  <si>
+    <t>spb.rabota.ru</t>
+  </si>
+  <si>
+    <t>Свежие вакансииСоздать резюмеПоиск по компаниямПоиск по профессиям</t>
+  </si>
+  <si>
+    <t>Только проверенные и актуальные вакансии от прямых работодателей. Оставьте отклик! · Работа без опыта. Работа для студентов. Подработка. Оформление по ТК</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +641,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>